--- a/testing/Workbook1.xlsx
+++ b/testing/Workbook1.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>SECTION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>1D_Motion_Prelab</t>
   </si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>4:30PM</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,67 +443,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -511,10 +511,10 @@
         <v>28182</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>42036</v>
@@ -575,16 +575,34 @@
       <c r="A3">
         <v>28183</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="1">
         <v>42036</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42043</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>28184</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="1">
         <v>42036</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42044</v>
       </c>
     </row>
   </sheetData>

--- a/testing/Workbook1.xlsx
+++ b/testing/Workbook1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +587,54 @@
       <c r="E3" s="1">
         <v>42043</v>
       </c>
+      <c r="F3" s="1">
+        <v>42044</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42045</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42046</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42047</v>
+      </c>
+      <c r="J3" s="1">
+        <v>42048</v>
+      </c>
+      <c r="K3" s="1">
+        <v>42049</v>
+      </c>
+      <c r="L3" s="1">
+        <v>42050</v>
+      </c>
+      <c r="M3" s="1">
+        <v>42051</v>
+      </c>
+      <c r="N3" s="1">
+        <v>42052</v>
+      </c>
+      <c r="O3" s="1">
+        <v>42053</v>
+      </c>
+      <c r="P3" s="1">
+        <v>42054</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42055</v>
+      </c>
+      <c r="R3" s="1">
+        <v>42056</v>
+      </c>
+      <c r="S3" s="1">
+        <v>42057</v>
+      </c>
+      <c r="T3" s="1">
+        <v>42058</v>
+      </c>
+      <c r="U3" s="1">
+        <v>42059</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -603,6 +651,54 @@
       </c>
       <c r="E4" s="1">
         <v>42044</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42045</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42046</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42047</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42048</v>
+      </c>
+      <c r="J4" s="1">
+        <v>42049</v>
+      </c>
+      <c r="K4" s="1">
+        <v>42050</v>
+      </c>
+      <c r="L4" s="1">
+        <v>42051</v>
+      </c>
+      <c r="M4" s="1">
+        <v>42052</v>
+      </c>
+      <c r="N4" s="1">
+        <v>42053</v>
+      </c>
+      <c r="O4" s="1">
+        <v>42054</v>
+      </c>
+      <c r="P4" s="1">
+        <v>42055</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>42056</v>
+      </c>
+      <c r="R4" s="1">
+        <v>42057</v>
+      </c>
+      <c r="S4" s="1">
+        <v>42058</v>
+      </c>
+      <c r="T4" s="1">
+        <v>42059</v>
+      </c>
+      <c r="U4" s="1">
+        <v>42060</v>
       </c>
     </row>
   </sheetData>
